--- a/Excel/Practica 1/Ventas.xlsx
+++ b/Excel/Practica 1/Ventas.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso Power BI y Excel\Excel\Practica 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="14925" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="14925"/>
   </bookViews>
   <sheets>
     <sheet name="ventas" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,20 @@
     <sheet name="informes ventas" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SegmentaciónDeDatos_Producto">#N/A</definedName>
+    <definedName name="NativeTimeline_Tiempo">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Producto1">#N/A</definedName>
-    <definedName name="SegmentaciónDeDatos_Region">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Region1">#N/A</definedName>
-    <definedName name="SegmentaciónDeDatos_Vendedor">#N/A</definedName>
-    <definedName name="SegmentaciónDeDatos_Vendedor1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Vendedor2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="44" r:id="rId4"/>
+    <pivotCache cacheId="32" r:id="rId5"/>
+    <pivotCache cacheId="37" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
@@ -42,12 +39,10 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId10"/>
-        <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
-      </x15:slicerCaches>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId10"/>
+      </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="28">
   <si>
     <t>Region</t>
   </si>
@@ -130,6 +125,18 @@
   <si>
     <t>INFORME DE VENTAS</t>
   </si>
+  <si>
+    <t>Total rango</t>
+  </si>
+  <si>
+    <t>Total tabla</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +148,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +168,24 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +204,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -205,11 +234,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,11 +348,406 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="144">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -473,396 +965,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -923,6 +1025,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -935,10 +1043,736 @@
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,9 +1930,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1125,6 +1959,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1137,6 +1980,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1144,10 +1990,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$B$3:$B$15</c:f>
+              <c:f>'td ventas'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="3">
                   <c:v>9323</c:v>
                 </c:pt>
@@ -1155,6 +2001,15 @@
                   <c:v>10348</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>13531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10348</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13531</c:v>
                 </c:pt>
               </c:numCache>
@@ -1187,9 +2042,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1216,6 +2071,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1228,6 +2092,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1235,10 +2102,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$C$3:$C$15</c:f>
+              <c:f>'td ventas'!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>8287</c:v>
                 </c:pt>
@@ -1246,6 +2113,15 @@
                   <c:v>11420</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11420</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20098</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,9 +2154,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1307,6 +2183,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1319,6 +2204,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1326,10 +2214,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$D$3:$D$15</c:f>
+              <c:f>'td ventas'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6909</c:v>
                 </c:pt>
@@ -1337,6 +2225,15 @@
                   <c:v>12948</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12948</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>30633</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,9 +2266,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1398,6 +2295,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1410,6 +2316,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1417,10 +2326,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$E$3:$E$15</c:f>
+              <c:f>'td ventas'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="6">
                   <c:v>4744</c:v>
                 </c:pt>
@@ -1428,6 +2337,15 @@
                   <c:v>10711</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>32855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10711</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>32855</c:v>
                 </c:pt>
               </c:numCache>
@@ -1460,9 +2378,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1489,6 +2407,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1501,6 +2428,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1508,10 +2438,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$F$3:$F$15</c:f>
+              <c:f>'td ventas'!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="3">
                   <c:v>7667</c:v>
                 </c:pt>
@@ -1519,6 +2449,15 @@
                   <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>13374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9312</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13374</c:v>
                 </c:pt>
               </c:numCache>
@@ -1551,9 +2490,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$15</c:f>
+              <c:f>'td ventas'!$A$3:$A$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1580,6 +2519,15 @@
                     <c:v>Dispositivos</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Sistemas</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1592,6 +2540,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1599,10 +2550,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$G$3:$G$15</c:f>
+              <c:f>'td ventas'!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="6">
                   <c:v>5442</c:v>
                 </c:pt>
@@ -1610,6 +2561,15 @@
                   <c:v>8780</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>23151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8780</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>23151</c:v>
                 </c:pt>
               </c:numCache>
@@ -1626,11 +2586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="169905008"/>
-        <c:axId val="169905392"/>
+        <c:axId val="316978160"/>
+        <c:axId val="317022192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169905008"/>
+        <c:axId val="316978160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +2633,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169905392"/>
+        <c:crossAx val="317022192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +2641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169905392"/>
+        <c:axId val="317022192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +2692,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169905008"/>
+        <c:crossAx val="316978160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,9 +2883,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$I$2:$I$32</c:f>
+              <c:f>'td ventas'!$I$2:$I$54</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="36"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>David</c:v>
@@ -1979,6 +2939,60 @@
                     <c:v>Kevin</c:v>
                   </c:pt>
                   <c:pt idx="17">
+                    <c:v>Sara</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Ana</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>David</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Karen</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Kevin</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Lucas</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Sara</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Ana</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>David</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Karen</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Kevin</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Lucas</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Sara</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Ana</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>David</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Karen</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Kevin</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Lucas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
                     <c:v>Sara</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2010,6 +3024,15 @@
                   <c:pt idx="16">
                     <c:v>Sistemas</c:v>
                   </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Accesorios</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Dispositivos</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Sistemas</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2020,6 +3043,9 @@
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>Oeste</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2027,10 +3053,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$J$2:$J$32</c:f>
+              <c:f>'td ventas'!$J$2:$J$54</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>8287</c:v>
                 </c:pt>
@@ -2085,6 +3111,60 @@
                 <c:pt idx="17">
                   <c:v>23151</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>9323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8287</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4744</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5442</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11420</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10711</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8780</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30633</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32855</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13374</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2099,11 +3179,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168972456"/>
-        <c:axId val="169789552"/>
+        <c:axId val="317092408"/>
+        <c:axId val="317092792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168972456"/>
+        <c:axId val="317092408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +3226,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169789552"/>
+        <c:crossAx val="317092792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2154,7 +3234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169789552"/>
+        <c:axId val="317092792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +3285,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168972456"/>
+        <c:crossAx val="317092408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,6 +3836,48 @@
               </a:effectLst>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2812,9 +3934,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'informes ventas'!$L$11:$L$13</c:f>
+              <c:f>'informes ventas'!$L$11:$L$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
                 </c:pt>
@@ -2824,15 +3946,18 @@
                 <c:pt idx="2">
                   <c:v>Oeste</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'informes ventas'!$M$11:$M$13</c:f>
+              <c:f>'informes ventas'!$M$11:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>"$"\ #,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>90295</c:v>
                 </c:pt>
@@ -2841,6 +3966,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>85683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,13 +4372,13 @@
                 <c:formatCode>"$"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42372</c:v>
+                  <c:v>84744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63519</c:v>
+                  <c:v>127038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133642</c:v>
+                  <c:v>267284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,11 +4395,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="169388720"/>
-        <c:axId val="170147144"/>
+        <c:axId val="317199560"/>
+        <c:axId val="317837792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169388720"/>
+        <c:axId val="317199560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +4441,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170147144"/>
+        <c:crossAx val="317837792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3321,7 +4449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170147144"/>
+        <c:axId val="317837792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +4473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169388720"/>
+        <c:crossAx val="317199560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,22 +4879,22 @@
                 <c:formatCode>"$"\ #,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30353</c:v>
+                  <c:v>60706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33202</c:v>
+                  <c:v>66404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37373</c:v>
+                  <c:v>74746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39805</c:v>
+                  <c:v>79610</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48310</c:v>
+                  <c:v>96620</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50490</c:v>
+                  <c:v>100980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,11 +4910,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="169543336"/>
-        <c:axId val="355673464"/>
+        <c:axId val="317840272"/>
+        <c:axId val="361109000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169543336"/>
+        <c:axId val="317840272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,7 +4956,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355673464"/>
+        <c:crossAx val="361109000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3836,7 +4964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355673464"/>
+        <c:axId val="361109000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,7 +4988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169543336"/>
+        <c:crossAx val="317840272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6625,24 +7753,24 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>226840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132907</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>176531</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531628</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153285</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Region"/>
+            <xdr:cNvPr id="6" name="Tiempo"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -6650,13 +7778,13 @@
             <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Tiempo"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6666,8 +7794,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3819750" y="0"/>
-              <a:ext cx="1800000" cy="1260000"/>
+              <a:off x="4563140" y="2170813"/>
+              <a:ext cx="4120116" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6687,224 +7815,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="es-AR" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos de tabla. La segmentación de datos de tabla se admite en Excel 2013 o versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>217315</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86838</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Vendedor"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3810225" y="1533525"/>
-              <a:ext cx="1800000" cy="1260000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-AR" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos de tabla. La segmentación de datos de tabla se admite en Excel 2013 o versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>217315</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156688</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Producto"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Producto"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3810225" y="3048000"/>
-              <a:ext cx="1800000" cy="1260000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-AR" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos de tabla. La segmentación de datos de tabla se admite en Excel 2013 o versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470923</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51384</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>933657</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47415</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Vendedor 1"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6116470" y="1122947"/>
-              <a:ext cx="1831953" cy="2496343"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-AR" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+                <a:t>Escala de tiempo: funciona en Excel 2013 o versiones posteriores. No la mueva ni cambie su tamaño.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7293,37 +8204,78 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44951.79046261574" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685779513886" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource name="TablaVentas"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="5">
     <cacheField name="Region" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Oeste"/>
+        <m/>
+        <s v="Central"/>
         <s v="Este"/>
-        <s v="Central"/>
-        <s v="Oeste"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Producto" numFmtId="0">
       <sharedItems count="3">
+        <s v="Sistemas"/>
+        <s v="Dispositivos"/>
         <s v="Accesorios"/>
-        <s v="Dispositivos"/>
-        <s v="Sistemas"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendedor" numFmtId="0">
       <sharedItems count="6">
+        <s v="Kevin"/>
+        <s v="Karen"/>
+        <s v="Sara"/>
+        <s v="David"/>
         <s v="Ana"/>
-        <s v="David"/>
-        <s v="Karen"/>
-        <s v="Kevin"/>
         <s v="Lucas"/>
-        <s v="Sara"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ventas" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4744" maxValue="32855"/>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-02-21T00:00:00" maxDate="2026-01-22T00:00:00" count="36">
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-03-21T00:00:00"/>
+        <d v="2023-04-21T00:00:00"/>
+        <d v="2023-05-21T00:00:00"/>
+        <d v="2023-06-21T00:00:00"/>
+        <d v="2023-07-21T00:00:00"/>
+        <d v="2023-08-21T00:00:00"/>
+        <d v="2023-09-21T00:00:00"/>
+        <d v="2023-10-21T00:00:00"/>
+        <d v="2023-11-21T00:00:00"/>
+        <d v="2023-12-21T00:00:00"/>
+        <d v="2024-01-21T00:00:00"/>
+        <d v="2024-02-21T00:00:00"/>
+        <d v="2024-03-21T00:00:00"/>
+        <d v="2024-04-21T00:00:00"/>
+        <d v="2024-05-21T00:00:00"/>
+        <d v="2024-06-21T00:00:00"/>
+        <d v="2024-07-21T00:00:00"/>
+        <d v="2024-08-21T00:00:00"/>
+        <d v="2024-09-21T00:00:00"/>
+        <d v="2024-10-21T00:00:00"/>
+        <d v="2024-11-21T00:00:00"/>
+        <d v="2024-12-21T00:00:00"/>
+        <d v="2025-01-21T00:00:00"/>
+        <d v="2025-02-21T00:00:00"/>
+        <d v="2025-03-21T00:00:00"/>
+        <d v="2025-04-21T00:00:00"/>
+        <d v="2025-05-21T00:00:00"/>
+        <d v="2025-06-21T00:00:00"/>
+        <d v="2025-07-21T00:00:00"/>
+        <d v="2025-08-21T00:00:00"/>
+        <d v="2025-09-21T00:00:00"/>
+        <d v="2025-10-21T00:00:00"/>
+        <d v="2025-11-21T00:00:00"/>
+        <d v="2025-12-21T00:00:00"/>
+        <d v="2026-01-21T00:00:00"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7335,37 +8287,68 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44956.843906249997" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685779861109" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="K1:N19" sheet="ventas"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Producto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ventas" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4744" maxValue="32855"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685780092594" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource name="TablaVentas"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="5">
     <cacheField name="Region" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Oeste"/>
+        <m/>
+        <s v="Central"/>
         <s v="Este"/>
-        <s v="Central"/>
-        <s v="Oeste"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Producto" numFmtId="0">
       <sharedItems count="3">
+        <s v="Sistemas"/>
+        <s v="Dispositivos"/>
         <s v="Accesorios"/>
-        <s v="Dispositivos"/>
-        <s v="Sistemas"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendedor" numFmtId="0">
       <sharedItems count="6">
+        <s v="Kevin"/>
+        <s v="Karen"/>
+        <s v="Sara"/>
+        <s v="David"/>
         <s v="Ana"/>
-        <s v="David"/>
-        <s v="Karen"/>
-        <s v="Kevin"/>
         <s v="Lucas"/>
-        <s v="Sara"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ventas" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4744" maxValue="32855"/>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-02-21T00:00:00" maxDate="2026-01-22T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7377,114 +8360,258 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="9323"/>
+    <n v="32855"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32855"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30633"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30633"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23151"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23151"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20098"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20098"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13531"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13531"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13374"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13374"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12948"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12948"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11420"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11420"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+    <n v="10711"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10711"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="10348"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10348"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9323"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9323"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9312"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9312"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8780"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8780"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8287"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8287"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7667"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7667"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6909"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6909"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5442"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5442"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="13531"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="8287"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="11420"/>
+    <n v="4744"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="20098"/>
-  </r>
-  <r>
-    <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
-    <n v="6909"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="12948"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="30633"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
     <n v="4744"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="10711"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="32855"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="7667"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="9312"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="13374"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="5442"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="8780"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="23151"/>
+    <x v="35"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -7492,155 +8619,950 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
   <r>
+    <s v="Oeste"/>
+    <s v="Accesorios"/>
+    <s v="Kevin"/>
+    <n v="4744"/>
+  </r>
+  <r>
+    <s v="Oeste"/>
+    <s v="Accesorios"/>
+    <s v="Sara"/>
+    <n v="5442"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Accesorios"/>
+    <s v="Karen"/>
+    <n v="6909"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Accesorios"/>
+    <s v="Lucas"/>
+    <n v="7667"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Accesorios"/>
+    <s v="David"/>
+    <n v="8287"/>
+  </r>
+  <r>
+    <s v="Oeste"/>
+    <s v="Dispositivos"/>
+    <s v="Sara"/>
+    <n v="8780"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Dispositivos"/>
+    <s v="Lucas"/>
+    <n v="9312"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Accesorios"/>
+    <s v="Ana"/>
+    <n v="9323"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Dispositivos"/>
+    <s v="Ana"/>
+    <n v="10348"/>
+  </r>
+  <r>
+    <s v="Oeste"/>
+    <s v="Dispositivos"/>
+    <s v="Kevin"/>
+    <n v="10711"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Dispositivos"/>
+    <s v="David"/>
+    <n v="11420"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Dispositivos"/>
+    <s v="Karen"/>
+    <n v="12948"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Sistemas"/>
+    <s v="Lucas"/>
+    <n v="13374"/>
+  </r>
+  <r>
+    <s v="Este"/>
+    <s v="Sistemas"/>
+    <s v="Ana"/>
+    <n v="13531"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Sistemas"/>
+    <s v="David"/>
+    <n v="20098"/>
+  </r>
+  <r>
+    <s v="Oeste"/>
+    <s v="Sistemas"/>
+    <s v="Sara"/>
+    <n v="23151"/>
+  </r>
+  <r>
+    <s v="Central"/>
+    <s v="Sistemas"/>
+    <s v="Karen"/>
+    <n v="30633"/>
+  </r>
+  <r>
+    <s v="Oeste"/>
+    <s v="Sistemas"/>
+    <s v="Kevin"/>
+    <n v="32855"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+  <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="9323"/>
+    <n v="32855"/>
+    <d v="2023-02-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32855"/>
+    <d v="2023-03-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30633"/>
+    <d v="2023-04-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30633"/>
+    <d v="2023-05-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23151"/>
+    <d v="2023-06-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23151"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20098"/>
+    <d v="2023-08-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20098"/>
+    <d v="2023-09-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13531"/>
+    <d v="2023-10-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13531"/>
+    <d v="2023-11-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13374"/>
+    <d v="2023-12-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13374"/>
+    <d v="2024-01-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12948"/>
+    <d v="2024-02-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12948"/>
+    <d v="2024-03-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11420"/>
+    <d v="2024-04-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11420"/>
+    <d v="2024-05-21T00:00:00"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+    <n v="10711"/>
+    <d v="2024-06-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10711"/>
+    <d v="2024-07-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="10348"/>
+    <d v="2024-08-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10348"/>
+    <d v="2024-09-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9323"/>
+    <d v="2024-10-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9323"/>
+    <d v="2024-11-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9312"/>
+    <d v="2024-12-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9312"/>
+    <d v="2025-01-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8780"/>
+    <d v="2025-02-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8780"/>
+    <d v="2025-03-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8287"/>
+    <d v="2025-04-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8287"/>
+    <d v="2025-05-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7667"/>
+    <d v="2025-06-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7667"/>
+    <d v="2025-07-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6909"/>
+    <d v="2025-08-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6909"/>
+    <d v="2025-09-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5442"/>
+    <d v="2025-10-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5442"/>
+    <d v="2025-11-21T00:00:00"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="13531"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="8287"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="11420"/>
+    <n v="4744"/>
+    <d v="2025-12-21T00:00:00"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="20098"/>
-  </r>
-  <r>
-    <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
-    <n v="6909"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="12948"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="30633"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
     <n v="4744"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="10711"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="32855"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="7667"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="9312"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="13374"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="5442"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="8780"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="23151"/>
+    <d v="2026-01-21T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
-  <location ref="I1:J32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G9:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_vendedor" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Vendedor">
+  <location ref="L20:M26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="119">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="117">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="112">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_producto" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Producto">
+  <location ref="L15:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="128">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="124">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="123">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="121">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_region" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Región">
+  <location ref="L10:M14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="139">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="138">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="137">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="136">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="135">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="134">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="132">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="130">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P1:P2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total rango" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:G2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total tabla" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
+  <location ref="I1:J54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="53">
     <i>
       <x/>
     </i>
@@ -7731,6 +9653,72 @@
     <i r="2">
       <x v="5"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7742,10 +9730,10 @@
     <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="60">
+    <format dxfId="141">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7778,44 +9766,46 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
-  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
+  <location ref="A1:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -7842,6 +9832,18 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i r="1">
       <x/>
@@ -7883,10 +9885,10 @@
     <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="62">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8045,38 +10047,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
   <location ref="L32:L33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
+  <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -8088,25 +10092,25 @@
     <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="86">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="85">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="83">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8119,38 +10123,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
   <location ref="M32:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
+  <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -8162,25 +10168,25 @@
     <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="94">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="90">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="89">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8193,38 +10199,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_total" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
-  <location ref="L29:L30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_maximo" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+  <location ref="M29:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -8233,28 +10241,28 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="20">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="100">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="97">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8267,442 +10275,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_vendedor" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Vendedor">
-  <location ref="L20:M26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_total" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+  <location ref="L29:L30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_producto" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Producto">
-  <location ref="L15:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="4">
         <item x="1"/>
         <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="40">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_region" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Región">
-  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="51">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="46">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_maximo" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
-  <location ref="M29:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -8711,28 +10317,28 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
+    <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="58">
+    <format dxfId="108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="107">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="104">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="103">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8746,26 +10352,6 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Vendedor1" sourceName="Vendedor">
-  <pivotTables>
-    <pivotTable tabId="2" name="Tabla dinámica2"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="6">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Region1" sourceName="Region">
   <pivotTables>
     <pivotTable tabId="4" name="Td_venta_maximo"/>
@@ -8777,17 +10363,18 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
-      <items count="3">
+      <items count="4">
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Producto1" sourceName="Producto">
   <pivotTables>
     <pivotTable tabId="4" name="Td_venta_region"/>
@@ -8800,16 +10387,16 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="3">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Vendedor2" sourceName="Vendedor">
   <pivotTables>
     <pivotTable tabId="4" name="Td_venta_region"/>
@@ -8822,63 +10409,19 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="6">
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="5" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
       </items>
     </tabular>
   </data>
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Region" sourceName="Region">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="1"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Vendedor" sourceName="Vendedor">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="3"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaciónDeDatos_Producto" sourceName="Producto">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="2"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Vendedor 1" cache="SegmentaciónDeDatos_Vendedor1" caption="Vendedor" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Region" cache="SegmentaciónDeDatos_Region" caption="Region" rowHeight="241300"/>
-  <slicer name="Vendedor" cache="SegmentaciónDeDatos_Vendedor" caption="Vendedor" columnCount="2" style="SlicerStyleLight4" rowHeight="241300"/>
-  <slicer name="Producto" cache="SegmentaciónDeDatos_Producto" caption="Producto" style="SlicerStyleLight6" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Region 1" cache="SegmentaciónDeDatos_Region1" caption="Region" rowHeight="241300"/>
   <slicer name="Producto 1" cache="SegmentaciónDeDatos_Producto1" caption="Producto" style="SlicerStyleLight2" rowHeight="241300"/>
@@ -8887,16 +10430,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaVentas" displayName="TablaVentas" ref="A1:D19">
-  <autoFilter ref="A1:D19"/>
-  <sortState ref="A2:D19">
-    <sortCondition ref="C1:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaVentas" displayName="TablaVentas" ref="A1:E37">
+  <autoFilter ref="A1:E37"/>
+  <sortState ref="A2:E37">
+    <sortCondition descending="1" ref="D1:D37"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" name="Region" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Producto"/>
     <tableColumn id="3" name="Vendedor"/>
-    <tableColumn id="4" name="Ventas" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" name="Ventas" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76"/>
+    <tableColumn id="6" name="Tiempo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -9163,12 +10707,29 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_Tiempo" sourceName="Tiempo">
+  <pivotTables>
+    <pivotTable tabId="1" name="Tabla dinámica6"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="unknown">
+    <bounds startDate="2023-01-01T00:00:00" endDate="2027-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <timeline name="Tiempo" cache="NativeTimeline_Tiempo" caption="Tiempo" level="0" selectionLevel="0" scrollPosition="2023-01-01T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9176,16 +10737,19 @@
     <col min="1" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
-    <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="7" customWidth="1"/>
+    <col min="5" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="6" customWidth="1"/>
+    <col min="15" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9198,249 +10762,504 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1"/>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>32855</v>
+      </c>
+      <c r="E2" s="27">
+        <v>44978</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26">
+        <v>479066</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9323</v>
-      </c>
-      <c r="K2"/>
+      <c r="M2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="22">
+        <v>4744</v>
+      </c>
+      <c r="O2" s="2">
+        <f>N2*0.9</f>
+        <v>4269.6000000000004</v>
+      </c>
+      <c r="P2" s="26">
+        <v>239533</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>10348</v>
-      </c>
-      <c r="K3"/>
+        <v>32855</v>
+      </c>
+      <c r="E3" s="27">
+        <v>45006</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="K3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="22">
+        <v>5442</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>13531</v>
-      </c>
-      <c r="K4"/>
+        <v>30633</v>
+      </c>
+      <c r="E4" s="27">
+        <v>45037</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="K4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="22">
+        <v>6909</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30633</v>
+      </c>
+      <c r="E5" s="27">
+        <v>45067</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="K5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="22">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23151</v>
+      </c>
+      <c r="E6" s="27">
+        <v>45098</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="K6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="L6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="M6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="N6" s="22">
         <v>8287</v>
       </c>
-      <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11420</v>
-      </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>20098</v>
-      </c>
-      <c r="K7"/>
+        <v>23151</v>
+      </c>
+      <c r="E7" s="27">
+        <v>45128</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="K7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="22">
+        <v>8780</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20098</v>
+      </c>
+      <c r="E8" s="27">
+        <v>45159</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="K8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="22">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20098</v>
+      </c>
+      <c r="E9" s="27">
+        <v>45190</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6909</v>
-      </c>
-      <c r="K8"/>
+      <c r="M9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="22">
+        <v>9323</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12948</v>
-      </c>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>30633</v>
-      </c>
-      <c r="K10"/>
+        <v>13531</v>
+      </c>
+      <c r="E10" s="27">
+        <v>45220</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26">
+        <v>479066</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="22">
+        <v>10348</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13531</v>
+      </c>
+      <c r="E11" s="27">
+        <v>45251</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="K11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="L11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>4744</v>
-      </c>
-      <c r="K11"/>
+      <c r="N11" s="22">
+        <v>10711</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13374</v>
+      </c>
+      <c r="E12" s="27">
+        <v>45281</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="K12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10711</v>
-      </c>
-      <c r="K12"/>
+      <c r="M12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="22">
+        <v>11420</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>32855</v>
-      </c>
-      <c r="K13"/>
+        <v>13374</v>
+      </c>
+      <c r="E13" s="27">
+        <v>45312</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="K13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="22">
+        <v>12948</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12948</v>
+      </c>
+      <c r="E14" s="27">
+        <v>45343</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="K14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="L14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
-        <v>7667</v>
-      </c>
-      <c r="K14"/>
+      <c r="N14" s="22">
+        <v>13374</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>9312</v>
-      </c>
-      <c r="K15"/>
+        <v>12948</v>
+      </c>
+      <c r="E15" s="27">
+        <v>45372</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="K15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="22">
+        <v>13531</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11420</v>
+      </c>
+      <c r="E16" s="27">
+        <v>45403</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="K16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>13374</v>
-      </c>
-      <c r="K16"/>
+      <c r="M16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22">
+        <v>20098</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11420</v>
+      </c>
+      <c r="E17" s="27">
+        <v>45433</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="K17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="L17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
-        <v>5442</v>
-      </c>
-      <c r="K17"/>
+      <c r="N17" s="22">
+        <v>23151</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9448,75 +11267,600 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10711</v>
+      </c>
+      <c r="E18" s="27">
+        <v>45464</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="K18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="22">
+        <v>30633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10711</v>
+      </c>
+      <c r="E19" s="27">
+        <v>45494</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="K19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="19">
+        <v>32855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10348</v>
+      </c>
+      <c r="E20" s="27">
+        <v>45525</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="K20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="22">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10348</v>
+      </c>
+      <c r="E21" s="27">
+        <v>45556</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="K21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
+      <c r="N21" s="22">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9323</v>
+      </c>
+      <c r="E22" s="27">
+        <v>45586</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="K22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="22">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9323</v>
+      </c>
+      <c r="E23" s="27">
+        <v>45617</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="K23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="22">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9312</v>
+      </c>
+      <c r="E24" s="27">
+        <v>45647</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="K24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="22">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9312</v>
+      </c>
+      <c r="E25" s="27">
+        <v>45678</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="K25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="22">
         <v>8780</v>
       </c>
-      <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8780</v>
+      </c>
+      <c r="E26" s="27">
+        <v>45709</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="K26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="22">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8780</v>
+      </c>
+      <c r="E27" s="27">
+        <v>45737</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="K27" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="22">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8287</v>
+      </c>
+      <c r="E28" s="27">
+        <v>45768</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="K28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="22">
+        <v>10348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8287</v>
+      </c>
+      <c r="E29" s="27">
+        <v>45798</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="K29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="22">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7667</v>
+      </c>
+      <c r="E30" s="27">
+        <v>45829</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="K30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="22">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7667</v>
+      </c>
+      <c r="E31" s="27">
+        <v>45859</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="K31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="22">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6909</v>
+      </c>
+      <c r="E32" s="27">
+        <v>45890</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="K32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="M32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="22">
+        <v>13374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6909</v>
+      </c>
+      <c r="E33" s="27">
+        <v>45921</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="K33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="22">
+        <v>13531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D34" s="2">
+        <v>5442</v>
+      </c>
+      <c r="E34" s="27">
+        <v>45951</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="K34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="22">
+        <v>20098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5442</v>
+      </c>
+      <c r="E35" s="27">
+        <v>45982</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="K35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="22">
         <v>23151</v>
       </c>
-      <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K20"/>
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4744</v>
+      </c>
+      <c r="E36" s="27">
+        <v>46012</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="K36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="22">
+        <v>30633</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K34"/>
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4744</v>
+      </c>
+      <c r="E37" s="27">
+        <v>46043</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="K37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="19">
+        <v>32855</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D19">
+  <conditionalFormatting sqref="D2:D37">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9527,21 +11871,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId5"/>
-      </x14:slicerList>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId7"/>
+      </x15:timelineRefs>
     </ext>
   </extLst>
 </worksheet>
@@ -9549,19 +11888,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="4" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="11" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="7" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -9861,7 +12203,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6">
         <v>33202</v>
@@ -9889,6 +12231,27 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9323</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8287</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6909</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4744</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7667</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5442</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>8</v>
       </c>
@@ -9896,7 +12259,28 @@
         <v>19660</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10348</v>
+      </c>
+      <c r="C17" s="6">
+        <v>11420</v>
+      </c>
+      <c r="D17" s="6">
+        <v>12948</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10711</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9312</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8780</v>
+      </c>
       <c r="I17" s="7" t="s">
         <v>11</v>
       </c>
@@ -9904,7 +12288,28 @@
         <v>10348</v>
       </c>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13531</v>
+      </c>
+      <c r="C18" s="6">
+        <v>20098</v>
+      </c>
+      <c r="D18" s="6">
+        <v>30633</v>
+      </c>
+      <c r="E18" s="6">
+        <v>32855</v>
+      </c>
+      <c r="F18" s="6">
+        <v>13374</v>
+      </c>
+      <c r="G18" s="6">
+        <v>23151</v>
+      </c>
       <c r="I18" s="7" t="s">
         <v>12</v>
       </c>
@@ -9912,7 +12317,28 @@
         <v>9312</v>
       </c>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>66404</v>
+      </c>
+      <c r="C19" s="6">
+        <v>79610</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100980</v>
+      </c>
+      <c r="E19" s="6">
+        <v>96620</v>
+      </c>
+      <c r="F19" s="6">
+        <v>60706</v>
+      </c>
+      <c r="G19" s="6">
+        <v>74746</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>9</v>
       </c>
@@ -9920,7 +12346,7 @@
         <v>26905</v>
       </c>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I20" s="7" t="s">
         <v>11</v>
       </c>
@@ -9928,7 +12354,7 @@
         <v>13531</v>
       </c>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I21" s="7" t="s">
         <v>12</v>
       </c>
@@ -9936,7 +12362,7 @@
         <v>13374</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
@@ -9944,7 +12370,7 @@
         <v>85683</v>
       </c>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I23" s="5" t="s">
         <v>5</v>
       </c>
@@ -9952,7 +12378,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I24" s="7" t="s">
         <v>14</v>
       </c>
@@ -9960,7 +12386,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I25" s="7" t="s">
         <v>15</v>
       </c>
@@ -9968,7 +12394,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I26" s="5" t="s">
         <v>8</v>
       </c>
@@ -9976,7 +12402,7 @@
         <v>19491</v>
       </c>
     </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="7" t="s">
         <v>14</v>
       </c>
@@ -9984,7 +12410,7 @@
         <v>10711</v>
       </c>
     </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" s="7" t="s">
         <v>15</v>
       </c>
@@ -9992,7 +12418,7 @@
         <v>8780</v>
       </c>
     </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" s="5" t="s">
         <v>9</v>
       </c>
@@ -10000,7 +12426,7 @@
         <v>56006</v>
       </c>
     </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
@@ -10008,7 +12434,7 @@
         <v>32855</v>
       </c>
     </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" s="7" t="s">
         <v>15</v>
       </c>
@@ -10016,12 +12442,188 @@
         <v>23151</v>
       </c>
     </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I32" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J32" s="6">
         <v>239533</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="6">
+        <v>42372</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="6">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="6">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="6">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="6">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="6">
+        <v>63519</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="6">
+        <v>10348</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="6">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="6">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="6">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="6">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="6">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="6">
+        <v>133642</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="6">
+        <v>13531</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6">
+        <v>20098</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="6">
+        <v>30633</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="6">
+        <v>32855</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="6">
+        <v>13374</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="6">
+        <v>23151</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="6">
+        <v>479066</v>
       </c>
     </row>
   </sheetData>
@@ -10035,7 +12637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -10047,8 +12649,8 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="9" customWidth="1"/>
     <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10131,6 +12733,14 @@
         <v>85683</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="14">
+        <v>239533</v>
+      </c>
+    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L15" s="10" t="s">
         <v>1</v>
@@ -10144,7 +12754,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="8">
-        <v>42372</v>
+        <v>84744</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.2">
@@ -10152,7 +12762,7 @@
         <v>8</v>
       </c>
       <c r="M17" s="8">
-        <v>63519</v>
+        <v>127038</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
@@ -10160,7 +12770,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="8">
-        <v>133642</v>
+        <v>267284</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.2">
@@ -10176,7 +12786,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="15">
-        <v>30353</v>
+        <v>60706</v>
       </c>
     </row>
     <row r="22" spans="12:13" x14ac:dyDescent="0.2">
@@ -10184,7 +12794,7 @@
         <v>11</v>
       </c>
       <c r="M22" s="15">
-        <v>33202</v>
+        <v>66404</v>
       </c>
     </row>
     <row r="23" spans="12:13" x14ac:dyDescent="0.2">
@@ -10192,7 +12802,7 @@
         <v>15</v>
       </c>
       <c r="M23" s="15">
-        <v>37373</v>
+        <v>74746</v>
       </c>
     </row>
     <row r="24" spans="12:13" x14ac:dyDescent="0.2">
@@ -10200,7 +12810,7 @@
         <v>6</v>
       </c>
       <c r="M24" s="15">
-        <v>39805</v>
+        <v>79610</v>
       </c>
     </row>
     <row r="25" spans="12:13" x14ac:dyDescent="0.2">
@@ -10208,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="M25" s="15">
-        <v>48310</v>
+        <v>96620</v>
       </c>
     </row>
     <row r="26" spans="12:13" x14ac:dyDescent="0.2">
@@ -10216,7 +12826,7 @@
         <v>7</v>
       </c>
       <c r="M26" s="15">
-        <v>50490</v>
+        <v>100980</v>
       </c>
     </row>
     <row r="29" spans="12:13" x14ac:dyDescent="0.2">
@@ -10229,7 +12839,7 @@
     </row>
     <row r="30" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L30" s="8">
-        <v>239533</v>
+        <v>479066</v>
       </c>
       <c r="M30" s="8">
         <v>32855</v>
@@ -10245,7 +12855,7 @@
     </row>
     <row r="33" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L33" s="8">
-        <v>239533</v>
+        <v>479066</v>
       </c>
       <c r="M33" s="8">
         <v>32855</v>

--- a/Excel/Practica 1/Ventas.xlsx
+++ b/Excel/Practica 1/Ventas.xlsx
@@ -24,9 +24,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId4"/>
-    <pivotCache cacheId="32" r:id="rId5"/>
-    <pivotCache cacheId="37" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="29">
   <si>
     <t>Region</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
@@ -345,9 +348,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -359,134 +359,115 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="74">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -609,699 +590,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -1514,117 +802,64 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -1761,6 +996,75 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -1930,9 +1234,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -1961,15 +1265,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1981,19 +1276,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$B$3:$B$19</c:f>
+              <c:f>'td ventas'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="3">
                   <c:v>9323</c:v>
                 </c:pt>
@@ -2001,15 +1293,6 @@
                   <c:v>10348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13531</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9323</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10348</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>13531</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,9 +1325,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -2073,15 +1356,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2093,19 +1367,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$C$3:$C$19</c:f>
+              <c:f>'td ventas'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8287</c:v>
                 </c:pt>
@@ -2113,15 +1384,6 @@
                   <c:v>11420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8287</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11420</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>20098</c:v>
                 </c:pt>
               </c:numCache>
@@ -2154,9 +1416,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -2185,15 +1447,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2205,19 +1458,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$D$3:$D$19</c:f>
+              <c:f>'td ventas'!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6909</c:v>
                 </c:pt>
@@ -2225,15 +1475,6 @@
                   <c:v>12948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30633</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6909</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12948</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>30633</c:v>
                 </c:pt>
               </c:numCache>
@@ -2266,9 +1507,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -2297,15 +1538,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2317,19 +1549,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$E$3:$E$19</c:f>
+              <c:f>'td ventas'!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="6">
                   <c:v>4744</c:v>
                 </c:pt>
@@ -2337,15 +1566,6 @@
                   <c:v>10711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32855</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4744</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10711</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>32855</c:v>
                 </c:pt>
               </c:numCache>
@@ -2378,9 +1598,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -2409,15 +1629,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2429,19 +1640,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$F$3:$F$19</c:f>
+              <c:f>'td ventas'!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="3">
                   <c:v>7667</c:v>
                 </c:pt>
@@ -2449,15 +1657,6 @@
                   <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13374</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9312</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>13374</c:v>
                 </c:pt>
               </c:numCache>
@@ -2490,9 +1689,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$A$3:$A$19</c:f>
+              <c:f>'td ventas'!$A$3:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Accesorios</c:v>
@@ -2521,15 +1720,6 @@
                   <c:pt idx="8">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2541,19 +1731,16 @@
                   <c:pt idx="6">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$G$3:$G$19</c:f>
+              <c:f>'td ventas'!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="6">
                   <c:v>5442</c:v>
                 </c:pt>
@@ -2561,15 +1748,6 @@
                   <c:v>8780</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8780</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>23151</c:v>
                 </c:pt>
               </c:numCache>
@@ -2586,11 +1764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316978160"/>
-        <c:axId val="317022192"/>
+        <c:axId val="362590144"/>
+        <c:axId val="315852200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316978160"/>
+        <c:axId val="362590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +1811,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317022192"/>
+        <c:crossAx val="315852200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +1819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317022192"/>
+        <c:axId val="315852200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +1870,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316978160"/>
+        <c:crossAx val="362590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,7 +1884,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2803,7 +1980,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,9 +2059,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'td ventas'!$I$2:$I$54</c:f>
+              <c:f>'td ventas'!$I$2:$I$32</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>David</c:v>
@@ -2941,60 +2117,6 @@
                   <c:pt idx="17">
                     <c:v>Sara</c:v>
                   </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ana</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>David</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Karen</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Kevin</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Lucas</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Sara</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Ana</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>David</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Karen</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Kevin</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Lucas</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Sara</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Ana</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>David</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Karen</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>Kevin</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>Lucas</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>Sara</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3024,15 +2146,6 @@
                   <c:pt idx="16">
                     <c:v>Sistemas</c:v>
                   </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Accesorios</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Dispositivos</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Sistemas</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3044,19 +2157,16 @@
                   <c:pt idx="12">
                     <c:v>Oeste</c:v>
                   </c:pt>
-                  <c:pt idx="18">
-                    <c:v>(en blanco)</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'td ventas'!$J$2:$J$54</c:f>
+              <c:f>'td ventas'!$J$2:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>8287</c:v>
                 </c:pt>
@@ -3111,60 +2221,6 @@
                 <c:pt idx="17">
                   <c:v>23151</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>9323</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8287</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6909</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4744</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5442</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11420</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12948</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10711</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9312</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8780</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13531</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20098</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30633</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32855</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13374</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23151</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3179,11 +2235,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317092408"/>
-        <c:axId val="317092792"/>
+        <c:axId val="316012032"/>
+        <c:axId val="314285888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317092408"/>
+        <c:axId val="316012032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +2282,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317092792"/>
+        <c:crossAx val="314285888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3234,7 +2290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317092792"/>
+        <c:axId val="314285888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +2341,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317092408"/>
+        <c:crossAx val="316012032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3299,7 +2355,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3517,7 +2572,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3552,9 +2606,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3639,9 +2691,95 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.15085284228818463"/>
+              <c:y val="-2.7048431145109898E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3879,6 +3017,25 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15085284228818463"/>
+                  <c:y val="-2.7048431145109898E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3927,9 +3084,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4105,7 +3260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4188,7 +3342,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4225,9 +3378,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4330,7 +3481,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4395,11 +3545,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="317199560"/>
-        <c:axId val="317837792"/>
+        <c:axId val="316707008"/>
+        <c:axId val="363387392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317199560"/>
+        <c:axId val="316707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +3591,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317837792"/>
+        <c:crossAx val="363387392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4449,7 +3599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317837792"/>
+        <c:axId val="363387392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +3623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317199560"/>
+        <c:crossAx val="316707008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4686,7 +3836,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4723,9 +3872,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4828,7 +3975,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4910,11 +4056,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="317840272"/>
-        <c:axId val="361109000"/>
+        <c:axId val="363393368"/>
+        <c:axId val="363393752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317840272"/>
+        <c:axId val="363393368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,7 +4102,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361109000"/>
+        <c:crossAx val="363393752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4964,7 +4110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361109000"/>
+        <c:axId val="363393752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,7 +4134,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317840272"/>
+        <c:crossAx val="363393368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7755,16 +6901,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>132907</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354419</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>99679</xdr:rowOff>
+      <xdr:rowOff>77528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>531628</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354419</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>153285</xdr:rowOff>
+      <xdr:rowOff>131134</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
@@ -7794,7 +6940,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4563140" y="2170813"/>
+              <a:off x="5471338" y="2148662"/>
               <a:ext cx="4120116" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8204,92 +7350,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685779513886" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
-  <cacheSource type="worksheet">
-    <worksheetSource name="TablaVentas"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Region" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Oeste"/>
-        <m/>
-        <s v="Central"/>
-        <s v="Este"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Producto" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Sistemas"/>
-        <s v="Dispositivos"/>
-        <s v="Accesorios"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Vendedor" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Kevin"/>
-        <s v="Karen"/>
-        <s v="Sara"/>
-        <s v="David"/>
-        <s v="Ana"/>
-        <s v="Lucas"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Ventas" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4744" maxValue="32855"/>
-    </cacheField>
-    <cacheField name="Tiempo" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-02-21T00:00:00" maxDate="2026-01-22T00:00:00" count="36">
-        <d v="2023-02-21T00:00:00"/>
-        <d v="2023-03-21T00:00:00"/>
-        <d v="2023-04-21T00:00:00"/>
-        <d v="2023-05-21T00:00:00"/>
-        <d v="2023-06-21T00:00:00"/>
-        <d v="2023-07-21T00:00:00"/>
-        <d v="2023-08-21T00:00:00"/>
-        <d v="2023-09-21T00:00:00"/>
-        <d v="2023-10-21T00:00:00"/>
-        <d v="2023-11-21T00:00:00"/>
-        <d v="2023-12-21T00:00:00"/>
-        <d v="2024-01-21T00:00:00"/>
-        <d v="2024-02-21T00:00:00"/>
-        <d v="2024-03-21T00:00:00"/>
-        <d v="2024-04-21T00:00:00"/>
-        <d v="2024-05-21T00:00:00"/>
-        <d v="2024-06-21T00:00:00"/>
-        <d v="2024-07-21T00:00:00"/>
-        <d v="2024-08-21T00:00:00"/>
-        <d v="2024-09-21T00:00:00"/>
-        <d v="2024-10-21T00:00:00"/>
-        <d v="2024-11-21T00:00:00"/>
-        <d v="2024-12-21T00:00:00"/>
-        <d v="2025-01-21T00:00:00"/>
-        <d v="2025-02-21T00:00:00"/>
-        <d v="2025-03-21T00:00:00"/>
-        <d v="2025-04-21T00:00:00"/>
-        <d v="2025-05-21T00:00:00"/>
-        <d v="2025-06-21T00:00:00"/>
-        <d v="2025-07-21T00:00:00"/>
-        <d v="2025-08-21T00:00:00"/>
-        <d v="2025-09-21T00:00:00"/>
-        <d v="2025-10-21T00:00:00"/>
-        <d v="2025-11-21T00:00:00"/>
-        <d v="2025-12-21T00:00:00"/>
-        <d v="2026-01-21T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685779861109" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
   <cacheSource type="worksheet">
-    <worksheetSource ref="K1:N19" sheet="ventas"/>
+    <worksheetSource ref="L1:O19" sheet="ventas"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Region" numFmtId="0">
@@ -8313,7 +7376,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.685780092594" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource name="TablaVentas"/>
@@ -8359,264 +7422,75 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32855"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32855"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="30633"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="30633"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="23151"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="23151"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="20098"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="20098"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="13531"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="13531"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="13374"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="13374"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="12948"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="12948"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="11420"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="11420"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="10711"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="10711"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="10348"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="10348"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="9323"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="9323"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="9312"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="9312"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8780"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8780"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="8287"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="8287"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="7667"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="7667"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="6909"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="6909"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="5442"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="5442"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4744"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4744"/>
-    <x v="35"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Braian" refreshedDate="44978.942140740743" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TablaVentas"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Codigo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Oeste"/>
+        <s v="Central"/>
+        <s v="Este"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Producto" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Sistemas"/>
+        <s v="Dispositivos"/>
+        <s v="Accesorios"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Kevin"/>
+        <s v="Karen"/>
+        <s v="Sara"/>
+        <s v="David"/>
+        <s v="Ana"/>
+        <s v="Lucas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ventas" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4744" maxValue="32855"/>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-02-21T00:00:00" maxDate="2025-12-22T00:00:00" count="18">
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-04-21T00:00:00"/>
+        <d v="2023-06-21T00:00:00"/>
+        <d v="2023-08-21T00:00:00"/>
+        <d v="2023-10-21T00:00:00"/>
+        <d v="2023-12-21T00:00:00"/>
+        <d v="2024-02-21T00:00:00"/>
+        <d v="2024-04-21T00:00:00"/>
+        <d v="2024-06-21T00:00:00"/>
+        <d v="2024-08-21T00:00:00"/>
+        <d v="2024-10-21T00:00:00"/>
+        <d v="2024-12-21T00:00:00"/>
+        <d v="2025-02-21T00:00:00"/>
+        <d v="2025-04-21T00:00:00"/>
+        <d v="2025-06-21T00:00:00"/>
+        <d v="2025-08-21T00:00:00"/>
+        <d v="2025-10-21T00:00:00"/>
+        <d v="2025-12-21T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
   <r>
     <s v="Oeste"/>
@@ -8729,7 +7603,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
   <r>
     <x v="0"/>
@@ -8986,55 +7860,163 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32855"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30633"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23151"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20098"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13531"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13374"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12948"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11420"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10711"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10348"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9323"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9312"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8780"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8287"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7667"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6909"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5442"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4744"/>
+    <x v="17"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G9:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q1:Q2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="37">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -9043,7 +8025,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Total rango" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9055,8 +8037,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_vendedor" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Vendedor">
-  <location ref="L20:M26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+  <location ref="M32:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="5">
@@ -9068,146 +8050,6 @@
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="119">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="117">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_producto" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Producto">
-  <location ref="L15:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
@@ -9229,75 +8071,39 @@
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="128">
+  <formats count="7">
+    <format dxfId="51">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
+    <format dxfId="47">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -9306,8 +8112,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_region" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Región">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_region" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Región">
   <location ref="L10:M14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9365,53 +8171,53 @@
     <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="139">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9457,6 +8263,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
@@ -9467,14 +8285,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="P1:P2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_maximo" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+  <location ref="M29:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -9483,9 +8327,32 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total rango" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <formats count="7">
+    <format dxfId="69">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -9494,10 +8361,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G1:G2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H1:H2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9511,7 +8379,58 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total tabla" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Total tabla" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H9:H10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9523,15 +8442,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
-  <location ref="I1:J54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
+  <location ref="I1:J32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="0"/>
-        <item x="1"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9558,11 +8478,11 @@
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
-    <field x="0"/>
     <field x="1"/>
     <field x="2"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="53">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -9653,72 +8573,6 @@
     <i r="2">
       <x v="5"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9727,13 +8581,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0" numFmtId="41"/>
+    <dataField name="Suma de Ventas" fld="4" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="141">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9767,15 +8621,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
-  <location ref="A1:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
+  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="0"/>
-        <item x="1"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9802,10 +8657,10 @@
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -9842,24 +8697,12 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="3"/>
   </colFields>
   <colItems count="6">
     <i>
@@ -9882,13 +8725,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0" numFmtId="41"/>
+    <dataField name="Suma de Ventas" fld="4" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="143">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9899,7 +8742,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -9911,7 +8754,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -9923,7 +8766,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -9935,7 +8778,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -9947,7 +8790,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -9959,7 +8802,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
@@ -9971,7 +8814,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -9983,7 +8826,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -9995,7 +8838,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -10007,7 +8850,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -10019,7 +8862,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -10031,7 +8874,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
@@ -10048,7 +8891,195 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_total" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
+  <location ref="L29:L30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_producto" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Producto">
+  <location ref="L15:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="26">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
   <location ref="L32:L33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -10092,25 +9123,25 @@
     <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="87">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10123,9 +9154,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
-  <location ref="M32:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_vendedor" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Vendedor">
+  <location ref="L20:M26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="5">
@@ -10144,7 +9175,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="7">
         <item x="4"/>
         <item x="3"/>
@@ -10154,195 +9185,107 @@
         <item x="2"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
+    <dataField name=" Ventas" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="7">
-    <format dxfId="94">
+  <formats count="11">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="40">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="37">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_maximo" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
-  <location ref="M29:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Máx. de Ventas" fld="3" subtotal="max" baseField="0" baseItem="2853551" numFmtId="165"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="101">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="99">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="95">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Td_venta_total" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Región">
-  <location ref="L29:L30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Total General" fld="3" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="108">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="107">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10430,16 +9373,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaVentas" displayName="TablaVentas" ref="A1:E37">
-  <autoFilter ref="A1:E37"/>
-  <sortState ref="A2:E37">
-    <sortCondition descending="1" ref="D1:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaVentas" displayName="TablaVentas" ref="A1:F19">
+  <autoFilter ref="A1:F19"/>
+  <sortState ref="A2:F19">
+    <sortCondition descending="1" ref="E1:E37"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
+    <tableColumn id="7" name="Codigo" dataDxfId="10"/>
     <tableColumn id="1" name="Region" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Producto"/>
     <tableColumn id="3" name="Vendedor"/>
-    <tableColumn id="4" name="Ventas" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76"/>
+    <tableColumn id="4" name="Ventas" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9"/>
     <tableColumn id="6" name="Tiempo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
@@ -10713,7 +9657,7 @@
     <pivotTable tabId="1" name="Tabla dinámica6"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="unknown">
-    <bounds startDate="2023-01-01T00:00:00" endDate="2027-01-01T00:00:00"/>
+    <bounds startDate="2023-01-01T00:00:00" endDate="2026-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
 </file>
@@ -10726,1111 +9670,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="11.625" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="16" max="16" width="16.625" style="6" customWidth="1"/>
+    <col min="17" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1"/>
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>32855</v>
       </c>
-      <c r="E2" s="27">
+      <c r="F2" s="26">
         <v>44978</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26">
-        <v>479066</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="20" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="25">
+        <v>239533</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="22">
+      <c r="O2" s="21">
         <v>4744</v>
       </c>
-      <c r="O2" s="2">
-        <f>N2*0.9</f>
+      <c r="P2" s="2">
+        <f>O2*0.9</f>
         <v>4269.6000000000004</v>
       </c>
-      <c r="P2" s="26">
+      <c r="Q2" s="25">
         <v>239533</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30633</v>
+      </c>
+      <c r="F3" s="26">
+        <v>45037</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="L3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="21">
+        <v>5442</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23151</v>
+      </c>
+      <c r="F4" s="26">
+        <v>45098</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="L4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="21">
+        <v>6909</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20098</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45159</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="L5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="21">
+        <v>7667</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13531</v>
+      </c>
+      <c r="F6" s="26">
+        <v>45220</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="L6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="21">
+        <v>8287</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13374</v>
+      </c>
+      <c r="F7" s="26">
+        <v>45281</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="L7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="21">
+        <v>8780</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12948</v>
+      </c>
+      <c r="F8" s="26">
+        <v>45343</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="L8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="21">
+        <v>9312</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11420</v>
+      </c>
+      <c r="F9" s="26">
+        <v>45403</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="21">
+        <v>9323</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E10" s="2">
+        <v>10711</v>
+      </c>
+      <c r="F10" s="26">
+        <v>45464</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25">
+        <v>239533</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="21">
+        <v>10348</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10348</v>
+      </c>
+      <c r="F11" s="26">
+        <v>45525</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="L11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="21">
+        <v>10711</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9323</v>
+      </c>
+      <c r="F12" s="26">
+        <v>45586</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="L12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="21">
+        <v>11420</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9312</v>
+      </c>
+      <c r="F13" s="26">
+        <v>45647</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="L13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="21">
+        <v>12948</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8780</v>
+      </c>
+      <c r="F14" s="26">
+        <v>45709</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="L14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="21">
+        <v>13374</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8287</v>
+      </c>
+      <c r="F15" s="26">
+        <v>45768</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="L15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="21">
+        <v>13531</v>
+      </c>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7667</v>
+      </c>
+      <c r="F16" s="26">
+        <v>45829</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="L16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="21">
+        <v>20098</v>
+      </c>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6909</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45890</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="L17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="21">
+        <v>23151</v>
+      </c>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5442</v>
+      </c>
+      <c r="F18" s="26">
+        <v>45951</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="L18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="21">
+        <v>30633</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4744</v>
+      </c>
+      <c r="F19" s="26">
+        <v>46012</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="L19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="18">
         <v>32855</v>
       </c>
-      <c r="E3" s="27">
-        <v>45006</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="K3" s="20" t="s">
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="E20"/>
+      <c r="G20" s="26"/>
+      <c r="L20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="21">
+        <v>4744</v>
+      </c>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="E21"/>
+      <c r="G21" s="26"/>
+      <c r="L21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="22">
+      <c r="O21" s="21">
         <v>5442</v>
       </c>
+      <c r="P21"/>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="E22"/>
+      <c r="G22" s="26"/>
+      <c r="L22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="21">
+        <v>6909</v>
+      </c>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="E23"/>
+      <c r="G23" s="26"/>
+      <c r="L23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="21">
+        <v>7667</v>
+      </c>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="E24"/>
+      <c r="G24" s="26"/>
+      <c r="L24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="21">
+        <v>8287</v>
+      </c>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="E25"/>
+      <c r="G25" s="26"/>
+      <c r="L25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="21">
+        <v>8780</v>
+      </c>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="E26"/>
+      <c r="G26" s="26"/>
+      <c r="L26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="21">
+        <v>9312</v>
+      </c>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="E27"/>
+      <c r="G27" s="26"/>
+      <c r="L27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="21">
+        <v>9323</v>
+      </c>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="E28"/>
+      <c r="G28" s="26"/>
+      <c r="L28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="21">
+        <v>10348</v>
+      </c>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="E29"/>
+      <c r="G29" s="26"/>
+      <c r="L29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="21">
+        <v>10711</v>
+      </c>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="E30"/>
+      <c r="G30" s="26"/>
+      <c r="L30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="21">
+        <v>11420</v>
+      </c>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="E31"/>
+      <c r="G31" s="26"/>
+      <c r="L31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="21">
+        <v>12948</v>
+      </c>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="E32"/>
+      <c r="G32" s="26"/>
+      <c r="L32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="21">
+        <v>13374</v>
+      </c>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="E33"/>
+      <c r="G33" s="26"/>
+      <c r="L33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" s="21">
+        <v>13531</v>
+      </c>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="E34"/>
+      <c r="G34" s="26"/>
+      <c r="L34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="21">
+        <v>20098</v>
+      </c>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="E35"/>
+      <c r="G35" s="26"/>
+      <c r="L35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="21">
+        <v>23151</v>
+      </c>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="E36"/>
+      <c r="G36" s="26"/>
+      <c r="L36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="O36" s="21">
         <v>30633</v>
       </c>
-      <c r="E4" s="27">
-        <v>45037</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="K4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="22">
-        <v>6909</v>
-      </c>
+      <c r="P36"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="E37"/>
+      <c r="G37" s="26"/>
+      <c r="L37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30633</v>
-      </c>
-      <c r="E5" s="27">
-        <v>45067</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="K5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="22">
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23151</v>
-      </c>
-      <c r="E6" s="27">
-        <v>45098</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="K6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="22">
-        <v>8287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23151</v>
-      </c>
-      <c r="E7" s="27">
-        <v>45128</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="K7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="22">
-        <v>8780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20098</v>
-      </c>
-      <c r="E8" s="27">
-        <v>45159</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="K8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="22">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20098</v>
-      </c>
-      <c r="E9" s="27">
-        <v>45190</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="22">
-        <v>9323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>13531</v>
-      </c>
-      <c r="E10" s="27">
-        <v>45220</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26">
-        <v>479066</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="22">
-        <v>10348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>13531</v>
-      </c>
-      <c r="E11" s="27">
-        <v>45251</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="K11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="N37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="22">
-        <v>10711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13374</v>
-      </c>
-      <c r="E12" s="27">
-        <v>45281</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="K12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="22">
-        <v>11420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
-        <v>13374</v>
-      </c>
-      <c r="E13" s="27">
-        <v>45312</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="K13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="22">
-        <v>12948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12948</v>
-      </c>
-      <c r="E14" s="27">
-        <v>45343</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="K14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="22">
-        <v>13374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12948</v>
-      </c>
-      <c r="E15" s="27">
-        <v>45372</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="K15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="22">
-        <v>13531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2">
-        <v>11420</v>
-      </c>
-      <c r="E16" s="27">
-        <v>45403</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="K16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="22">
-        <v>20098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>11420</v>
-      </c>
-      <c r="E17" s="27">
-        <v>45433</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="K17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="22">
-        <v>23151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10711</v>
-      </c>
-      <c r="E18" s="27">
-        <v>45464</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="K18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="22">
-        <v>30633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10711</v>
-      </c>
-      <c r="E19" s="27">
-        <v>45494</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="K19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="19">
+      <c r="O37" s="18">
         <v>32855</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2">
-        <v>10348</v>
-      </c>
-      <c r="E20" s="27">
-        <v>45525</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="K20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="22">
-        <v>4744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10348</v>
-      </c>
-      <c r="E21" s="27">
-        <v>45556</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="K21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="22">
-        <v>5442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9323</v>
-      </c>
-      <c r="E22" s="27">
-        <v>45586</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="K22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="22">
-        <v>6909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2">
-        <v>9323</v>
-      </c>
-      <c r="E23" s="27">
-        <v>45617</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="K23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="22">
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9312</v>
-      </c>
-      <c r="E24" s="27">
-        <v>45647</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="K24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="22">
-        <v>8287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2">
-        <v>9312</v>
-      </c>
-      <c r="E25" s="27">
-        <v>45678</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="K25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="22">
-        <v>8780</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2">
-        <v>8780</v>
-      </c>
-      <c r="E26" s="27">
-        <v>45709</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="K26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="22">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8780</v>
-      </c>
-      <c r="E27" s="27">
-        <v>45737</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="K27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="22">
-        <v>9323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>8287</v>
-      </c>
-      <c r="E28" s="27">
-        <v>45768</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="K28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="22">
-        <v>10348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>8287</v>
-      </c>
-      <c r="E29" s="27">
-        <v>45798</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="K29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="22">
-        <v>10711</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2">
-        <v>7667</v>
-      </c>
-      <c r="E30" s="27">
-        <v>45829</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="K30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="22">
-        <v>11420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7667</v>
-      </c>
-      <c r="E31" s="27">
-        <v>45859</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="K31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="22">
-        <v>12948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6909</v>
-      </c>
-      <c r="E32" s="27">
-        <v>45890</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="K32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="22">
-        <v>13374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6909</v>
-      </c>
-      <c r="E33" s="27">
-        <v>45921</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="K33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="22">
-        <v>13531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2">
-        <v>5442</v>
-      </c>
-      <c r="E34" s="27">
-        <v>45951</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="K34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="22">
-        <v>20098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2">
-        <v>5442</v>
-      </c>
-      <c r="E35" s="27">
-        <v>45982</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="K35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="22">
-        <v>23151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4744</v>
-      </c>
-      <c r="E36" s="27">
-        <v>46012</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="K36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="22">
-        <v>30633</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4744</v>
-      </c>
-      <c r="E37" s="27">
-        <v>46043</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="K37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N37" s="19">
-        <v>32855</v>
-      </c>
+      <c r="P37"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D37">
+  <conditionalFormatting sqref="E2:E19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11840,7 +10700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N19">
+  <conditionalFormatting sqref="O2:O19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11850,17 +10710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D37">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N37">
+  <conditionalFormatting sqref="O20:O37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11888,9 +10738,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -11898,9 +10748,7 @@
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="7" width="7.625" customWidth="1"/>
+    <col min="3" max="7" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="16.625" customWidth="1"/>
@@ -12203,7 +11051,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>33202</v>
@@ -12231,27 +11079,6 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>9323</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8287</v>
-      </c>
-      <c r="D16" s="6">
-        <v>6909</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4744</v>
-      </c>
-      <c r="F16" s="6">
-        <v>7667</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5442</v>
-      </c>
       <c r="I16" s="5" t="s">
         <v>8</v>
       </c>
@@ -12259,28 +11086,7 @@
         <v>19660</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10348</v>
-      </c>
-      <c r="C17" s="6">
-        <v>11420</v>
-      </c>
-      <c r="D17" s="6">
-        <v>12948</v>
-      </c>
-      <c r="E17" s="6">
-        <v>10711</v>
-      </c>
-      <c r="F17" s="6">
-        <v>9312</v>
-      </c>
-      <c r="G17" s="6">
-        <v>8780</v>
-      </c>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" s="7" t="s">
         <v>11</v>
       </c>
@@ -12288,28 +11094,7 @@
         <v>10348</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6">
-        <v>13531</v>
-      </c>
-      <c r="C18" s="6">
-        <v>20098</v>
-      </c>
-      <c r="D18" s="6">
-        <v>30633</v>
-      </c>
-      <c r="E18" s="6">
-        <v>32855</v>
-      </c>
-      <c r="F18" s="6">
-        <v>13374</v>
-      </c>
-      <c r="G18" s="6">
-        <v>23151</v>
-      </c>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" s="7" t="s">
         <v>12</v>
       </c>
@@ -12317,28 +11102,7 @@
         <v>9312</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6">
-        <v>66404</v>
-      </c>
-      <c r="C19" s="6">
-        <v>79610</v>
-      </c>
-      <c r="D19" s="6">
-        <v>100980</v>
-      </c>
-      <c r="E19" s="6">
-        <v>96620</v>
-      </c>
-      <c r="F19" s="6">
-        <v>60706</v>
-      </c>
-      <c r="G19" s="6">
-        <v>74746</v>
-      </c>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" s="5" t="s">
         <v>9</v>
       </c>
@@ -12346,7 +11110,7 @@
         <v>26905</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I20" s="7" t="s">
         <v>11</v>
       </c>
@@ -12354,7 +11118,7 @@
         <v>13531</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I21" s="7" t="s">
         <v>12</v>
       </c>
@@ -12362,7 +11126,7 @@
         <v>13374</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
@@ -12370,7 +11134,7 @@
         <v>85683</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I23" s="5" t="s">
         <v>5</v>
       </c>
@@ -12378,7 +11142,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I24" s="7" t="s">
         <v>14</v>
       </c>
@@ -12386,7 +11150,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I25" s="7" t="s">
         <v>15</v>
       </c>
@@ -12394,7 +11158,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I26" s="5" t="s">
         <v>8</v>
       </c>
@@ -12402,7 +11166,7 @@
         <v>19491</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I27" s="7" t="s">
         <v>14</v>
       </c>
@@ -12410,7 +11174,7 @@
         <v>10711</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I28" s="7" t="s">
         <v>15</v>
       </c>
@@ -12418,7 +11182,7 @@
         <v>8780</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I29" s="5" t="s">
         <v>9</v>
       </c>
@@ -12426,7 +11190,7 @@
         <v>56006</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
@@ -12434,7 +11198,7 @@
         <v>32855</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I31" s="7" t="s">
         <v>15</v>
       </c>
@@ -12442,188 +11206,12 @@
         <v>23151</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I32" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J32" s="6">
         <v>239533</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="6">
-        <v>42372</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="6">
-        <v>9323</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="6">
-        <v>8287</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="6">
-        <v>6909</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="6">
-        <v>4744</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="6">
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="6">
-        <v>5442</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="6">
-        <v>63519</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="6">
-        <v>10348</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="6">
-        <v>11420</v>
-      </c>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="6">
-        <v>12948</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="6">
-        <v>10711</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="6">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="6">
-        <v>8780</v>
-      </c>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="6">
-        <v>133642</v>
-      </c>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="6">
-        <v>13531</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="6">
-        <v>20098</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="6">
-        <v>30633</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="6">
-        <v>32855</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="6">
-        <v>13374</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="6">
-        <v>23151</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="6">
-        <v>479066</v>
       </c>
     </row>
   </sheetData>
@@ -12638,7 +11226,7 @@
   <dimension ref="A7:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12650,56 +11238,56 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L10" s="10" t="s">
